--- a/Resources/data-raw/Data_Extracted_From_ITU/ITU_regional_global_Key_ICT_indicator_aggregates_rev1_Jan_2022.xlsx
+++ b/Resources/data-raw/Data_Extracted_From_ITU/ITU_regional_global_Key_ICT_indicator_aggregates_rev1_Jan_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khadra/Documents/Project-3-Connectivity/Resources/data-raw/Data_Extracted_From_ITU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khadra/Documents/GitHub/Project-3-Connectivity/Resources/data-raw/Data_Extracted_From_ITU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F8958-A475-E048-99FC-C66C26802D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8AFA18-D21C-8C46-8B2C-AD4F44762BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2060" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="0" windowWidth="18560" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By dvpmnt status and spec. reg." sheetId="1" r:id="rId1"/>
@@ -204,11 +204,10 @@
     <t>Percentage of individuals using the Internet, by age</t>
   </si>
   <si>
-    <t>Youth 
-(15-24)</t>
+    <t>Rest of the population</t>
   </si>
   <si>
-    <t>Rest of the population</t>
+    <t>Youth (15-24)</t>
   </si>
 </sst>
 </file>
@@ -749,10 +748,10 @@
   <dimension ref="A1:DW127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C106" sqref="C106"/>
       <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9222,10 +9221,10 @@
   <dimension ref="A1:EC105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C106" sqref="C106"/>
       <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18605,7 +18604,7 @@
   <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C106" sqref="C106"/>
       <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
       <selection pane="bottomRight"/>
@@ -21933,8 +21932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22469,20 +22468,20 @@
         <v>43</v>
       </c>
       <c r="C23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
@@ -22639,19 +22638,19 @@
         <v>43</v>
       </c>
       <c r="C31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>56</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>55</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
@@ -22885,12 +22884,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23051,18 +23050,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2628CC35-871E-4504-B935-D0C67DF512CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7CA8E3-6AB8-41AC-9900-EFD00BE5E7F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23087,11 +23088,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7CA8E3-6AB8-41AC-9900-EFD00BE5E7F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2628CC35-871E-4504-B935-D0C67DF512CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>